--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>866347.1644679325</v>
+        <v>951704.4914477019</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12437488.66054344</v>
+        <v>12433754.73901463</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6541981.353790673</v>
+        <v>6542240.186367734</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8996664.144383926</v>
+        <v>8997933.331971603</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>211.2228407230376</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>115.8560010561821</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>136.5055240972823</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>49.02321982527197</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>76.60860108437696</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1885827556918</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>279.3606031721122</v>
+        <v>308.5370958323767</v>
       </c>
       <c r="I5" t="n">
-        <v>90.41743820696847</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.4636371046684</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>237.5511847227107</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.677297472816</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.14326985821191</v>
+        <v>96.62520054253645</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813348</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.7338711528682</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.4486940655557</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8317623645015</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>106.0712764472938</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>158.3631989961696</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1879751566017</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>81.52277195002867</v>
       </c>
       <c r="G7" t="n">
-        <v>166.594076741979</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>149.8074383354647</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>113.4418035153025</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887344</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>212.5820731195838</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>349.4323201714347</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>61.18421556648692</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>150.1907097801323</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>92.47445699814307</v>
+        <v>243.2391485592449</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>46.90342393179426</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>57.81578986397442</v>
       </c>
       <c r="D14" t="n">
-        <v>28.93420885557987</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1667,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680975</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>88.01624809068113</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>67.58996595590244</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>270.6785473558387</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>28.90798465780275</v>
+        <v>128.5906918204595</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>121.5091210367494</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>257.7716304668725</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>94.01548028508992</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>15.32691334752876</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.78083674901936</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.8595940207482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>249.680114040507</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2843,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>142.4741679217952</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>79.76470074482786</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>59.90320919298934</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.9083821604492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>78.37892431361125</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>55.82801639720944</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>100.3137235757489</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.127306183653709</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>36.80199454068539</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>150.6283576409136</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>109.1604817262603</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>178.2408095595324</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567368</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>142.384427099595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>99.50249420969666</v>
+        <v>138.1468804189081</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>133.909521928802</v>
       </c>
       <c r="E43" t="n">
-        <v>67.60666166344693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>267.3172025050078</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>229.7965692041365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>105.0076120744417</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>101.9758477505087</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261.4148864993053</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859562</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779384</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>813.513347294898</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444251</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660201</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660201</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660201</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>745.8753877952751</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>745.8753877952751</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="V2" t="n">
-        <v>745.8753877952751</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="W2" t="n">
-        <v>745.8753877952751</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="X2" t="n">
-        <v>745.8753877952751</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="Y2" t="n">
-        <v>503.6451371472901</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.5143163420073</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>386.0612870608803</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>237.1268773996291</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>237.1268773996291</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>120.1006137065158</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450204</v>
+        <v>192.1295835699345</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607143</v>
+        <v>338.8740072302312</v>
       </c>
       <c r="M3" t="n">
-        <v>469.636169515319</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679837</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367443</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640431</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660201</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682068</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>788.6531038308416</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>788.6531038308416</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>560.5143163420073</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="V3" t="n">
-        <v>560.5143163420073</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="W3" t="n">
-        <v>560.5143163420073</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="X3" t="n">
-        <v>560.5143163420073</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.5143163420073</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>828.7538312854228</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>828.7538312854228</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>779.2354274215118</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>631.3223338391186</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>484.4323863412083</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>315.8255413365916</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030907</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916895</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456602</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660201</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854228</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>828.7538312854228</v>
+        <v>977.4730946682703</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7538312854228</v>
+        <v>977.4730946682703</v>
       </c>
       <c r="U4" t="n">
-        <v>828.7538312854228</v>
+        <v>711.0954381010923</v>
       </c>
       <c r="V4" t="n">
-        <v>828.7538312854228</v>
+        <v>456.4109498952054</v>
       </c>
       <c r="W4" t="n">
-        <v>828.7538312854228</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>828.7538312854228</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.7538312854228</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.8867013642098</v>
+        <v>345.5190685452735</v>
       </c>
       <c r="C5" t="n">
-        <v>825.8867013642098</v>
+        <v>345.5190685452735</v>
       </c>
       <c r="D5" t="n">
-        <v>825.8867013642098</v>
+        <v>345.5190685452735</v>
       </c>
       <c r="E5" t="n">
-        <v>825.8867013642098</v>
+        <v>345.5190685452735</v>
       </c>
       <c r="F5" t="n">
-        <v>825.8867013642098</v>
+        <v>345.5190685452735</v>
       </c>
       <c r="G5" t="n">
-        <v>409.5345975705817</v>
+        <v>345.5190685452735</v>
       </c>
       <c r="H5" t="n">
-        <v>127.3521701240037</v>
+        <v>33.86543639135758</v>
       </c>
       <c r="I5" t="n">
-        <v>36.02142446039917</v>
+        <v>33.86543639135758</v>
       </c>
       <c r="J5" t="n">
-        <v>118.4528715681365</v>
+        <v>108.460446878029</v>
       </c>
       <c r="K5" t="n">
-        <v>292.7347608803249</v>
+        <v>270.9975490818717</v>
       </c>
       <c r="L5" t="n">
-        <v>545.848617488876</v>
+        <v>509.5409587374023</v>
       </c>
       <c r="M5" t="n">
-        <v>859.1559902289313</v>
+        <v>806.635901817654</v>
       </c>
       <c r="N5" t="n">
-        <v>1182.146812191527</v>
+        <v>1113.151960058978</v>
       </c>
       <c r="O5" t="n">
-        <v>1473.802625181956</v>
+        <v>1389.251120836707</v>
       </c>
       <c r="P5" t="n">
-        <v>1688.22311301462</v>
+        <v>1590.3943659217</v>
       </c>
       <c r="Q5" t="n">
-        <v>1801.071223019958</v>
+        <v>1693.271819567879</v>
       </c>
       <c r="R5" t="n">
-        <v>1801.071223019958</v>
+        <v>1693.271819567879</v>
       </c>
       <c r="S5" t="n">
-        <v>1801.071223019958</v>
+        <v>1693.271819567879</v>
       </c>
       <c r="T5" t="n">
-        <v>1589.491791601101</v>
+        <v>1693.271819567879</v>
       </c>
       <c r="U5" t="n">
-        <v>1589.491791601101</v>
+        <v>1453.321127928778</v>
       </c>
       <c r="V5" t="n">
-        <v>1589.491791601101</v>
+        <v>1122.258240585207</v>
       </c>
       <c r="W5" t="n">
-        <v>1589.491791601101</v>
+        <v>1122.258240585207</v>
       </c>
       <c r="X5" t="n">
-        <v>1216.026033340022</v>
+        <v>1122.258240585207</v>
       </c>
       <c r="Y5" t="n">
-        <v>825.8867013642098</v>
+        <v>732.1189086093952</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724.8900363234816</v>
+        <v>477.1057726051455</v>
       </c>
       <c r="C6" t="n">
-        <v>724.8900363234816</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="D6" t="n">
-        <v>575.9556266622303</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="E6" t="n">
-        <v>416.7181716567748</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="F6" t="n">
-        <v>270.1836136836597</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>133.135838458593</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>36.02142446039917</v>
+        <v>67.95335120765404</v>
       </c>
       <c r="I6" t="n">
-        <v>36.02142446039917</v>
+        <v>33.86543639135758</v>
       </c>
       <c r="J6" t="n">
-        <v>66.29918268882851</v>
+        <v>184.30599164025</v>
       </c>
       <c r="K6" t="n">
-        <v>196.2035187965154</v>
+        <v>306.2331208520562</v>
       </c>
       <c r="L6" t="n">
-        <v>417.1984710392389</v>
+        <v>516.5017339747924</v>
       </c>
       <c r="M6" t="n">
-        <v>694.4460248202754</v>
+        <v>781.2321559315351</v>
       </c>
       <c r="N6" t="n">
-        <v>993.4401412897995</v>
+        <v>1067.377849343265</v>
       </c>
       <c r="O6" t="n">
-        <v>1244.741549418689</v>
+        <v>1454.670215278442</v>
       </c>
       <c r="P6" t="n">
-        <v>1517.851090631758</v>
+        <v>1627.595225892912</v>
       </c>
       <c r="Q6" t="n">
-        <v>1797.810216208911</v>
+        <v>1693.271819567879</v>
       </c>
       <c r="R6" t="n">
-        <v>1801.071223019958</v>
+        <v>1693.271819567879</v>
       </c>
       <c r="S6" t="n">
-        <v>1658.915797613021</v>
+        <v>1550.180157843125</v>
       </c>
       <c r="T6" t="n">
-        <v>1463.513076334682</v>
+        <v>1354.574272178464</v>
       </c>
       <c r="U6" t="n">
-        <v>1235.400185057407</v>
+        <v>1126.458064833948</v>
       </c>
       <c r="V6" t="n">
-        <v>1000.248076825665</v>
+        <v>891.3059566022052</v>
       </c>
       <c r="W6" t="n">
-        <v>893.1053733435497</v>
+        <v>637.0685998740037</v>
       </c>
       <c r="X6" t="n">
-        <v>893.1053733435497</v>
+        <v>477.1057726051455</v>
       </c>
       <c r="Y6" t="n">
-        <v>893.1053733435497</v>
+        <v>477.1057726051455</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1049.659583487733</v>
+        <v>751.4966890074649</v>
       </c>
       <c r="C7" t="n">
-        <v>915.1262752487416</v>
+        <v>582.560506079558</v>
       </c>
       <c r="D7" t="n">
-        <v>765.0096358364059</v>
+        <v>432.4438666672222</v>
       </c>
       <c r="E7" t="n">
-        <v>617.0965422540128</v>
+        <v>284.5307730848291</v>
       </c>
       <c r="F7" t="n">
-        <v>470.2065947561024</v>
+        <v>202.1845387918708</v>
       </c>
       <c r="G7" t="n">
-        <v>301.9297495621843</v>
+        <v>33.86543639135758</v>
       </c>
       <c r="H7" t="n">
-        <v>150.6091047788865</v>
+        <v>33.86543639135758</v>
       </c>
       <c r="I7" t="n">
-        <v>36.02142446039917</v>
+        <v>33.86543639135758</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36924098016284</v>
+        <v>36.28512133652257</v>
       </c>
       <c r="K7" t="n">
-        <v>179.9941830200438</v>
+        <v>170.0982437128609</v>
       </c>
       <c r="L7" t="n">
-        <v>412.9128165369507</v>
+        <v>396.8594047119607</v>
       </c>
       <c r="M7" t="n">
-        <v>668.8819810728215</v>
+        <v>646.3363778191566</v>
       </c>
       <c r="N7" t="n">
-        <v>924.1993874170962</v>
+        <v>895.315962536169</v>
       </c>
       <c r="O7" t="n">
-        <v>1144.010040981245</v>
+        <v>1109.272612021385</v>
       </c>
       <c r="P7" t="n">
-        <v>1308.575346340313</v>
+        <v>1268.828805580471</v>
       </c>
       <c r="Q7" t="n">
-        <v>1339.076753524694</v>
+        <v>1295.86216339702</v>
       </c>
       <c r="R7" t="n">
-        <v>1339.076753524694</v>
+        <v>1178.322155933652</v>
       </c>
       <c r="S7" t="n">
-        <v>1339.076753524694</v>
+        <v>975.8964400230219</v>
       </c>
       <c r="T7" t="n">
-        <v>1339.076753524694</v>
+        <v>751.4966890074649</v>
       </c>
       <c r="U7" t="n">
-        <v>1339.076753524694</v>
+        <v>751.4966890074649</v>
       </c>
       <c r="V7" t="n">
-        <v>1339.076753524694</v>
+        <v>751.4966890074649</v>
       </c>
       <c r="W7" t="n">
-        <v>1049.659583487733</v>
+        <v>751.4966890074649</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.659583487733</v>
+        <v>751.4966890074649</v>
       </c>
       <c r="Y7" t="n">
-        <v>1049.659583487733</v>
+        <v>751.4966890074649</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.04202752539</v>
+        <v>265.9761533554615</v>
       </c>
       <c r="C8" t="n">
-        <v>1505.04202752539</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.04202752539</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.253774927146</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F8" t="n">
-        <v>708.2678701375385</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704327</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.04202752539</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605202</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919931</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151215</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748161</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736637</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568935</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>281.0354892056709</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C10" t="n">
-        <v>281.0354892056709</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D10" t="n">
-        <v>281.0354892056709</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>281.0354892056709</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>281.0354892056709</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>113.0490245139495</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944681</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485184</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426315</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056709</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>281.0354892056709</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.0354892056709</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5042,19 +5044,19 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>970.0546934046018</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
         <v>922.6774975139006</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W13" t="n">
-        <v>970.0546934046018</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>970.0546934046018</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>970.0546934046018</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796247</v>
+        <v>2034.604709474942</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939213</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>523.5814653477182</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>523.5814653477182</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5431,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5440,43 +5442,43 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242372</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.011591242372</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
         <v>1273.262145272047</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1976.204921733553</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181405</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3126.409852034566</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3126.409852034566</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3126.409852034566</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>3126.409852034566</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>2752.944093773487</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y17" t="n">
-        <v>2362.804761797675</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.8497105067984</v>
+        <v>479.6639240396553</v>
       </c>
       <c r="C19" t="n">
-        <v>526.9135275788915</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D19" t="n">
-        <v>526.9135275788915</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E19" t="n">
-        <v>379.0004339964984</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F19" t="n">
-        <v>232.110486498588</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G19" t="n">
-        <v>232.110486498588</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H19" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1615.697475415546</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>1615.697475415546</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.280305378586</v>
+        <v>1110.094518911442</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.290754480568</v>
+        <v>882.1049680134252</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.4981753370381</v>
+        <v>661.312388869895</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5731,37 @@
         <v>921.7704558796256</v>
       </c>
       <c r="C20" t="n">
-        <v>892.5704713767946</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.336209604299</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2098.94140762926</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>741.9599508971592</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6020,19 +6022,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605071</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.94140762926</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>939.136495448918</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>770.2003125210111</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>770.2003125210111</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>622.287218938618</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>475.3972714407076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>307.6944348154266</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>161.4772480332844</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6166,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.191681214136</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.774511177175</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.784960279158</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y25" t="n">
-        <v>1120.784960279158</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2424.744041450752</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>2424.744041450752</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>313.9544330261738</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C28" t="n">
-        <v>313.9544330261738</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D28" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6409,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610488</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V28" t="n">
-        <v>1224.739181610488</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W28" t="n">
-        <v>935.3220115735276</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X28" t="n">
-        <v>707.3324606755102</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y28" t="n">
-        <v>486.5398815319801</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D29" t="n">
         <v>1617.939223126803</v>
@@ -6458,55 +6460,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3071.401852205159</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3071.401852205159</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V29" t="n">
-        <v>3071.401852205159</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W29" t="n">
-        <v>2718.633196935045</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y29" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6546,22 +6548,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1612.736483535255</v>
+        <v>1861.970701620179</v>
       </c>
       <c r="C31" t="n">
-        <v>1612.736483535255</v>
+        <v>1693.034518692272</v>
       </c>
       <c r="D31" t="n">
-        <v>1612.736483535255</v>
+        <v>1693.034518692272</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.823389952861</v>
+        <v>1693.034518692272</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.823389952861</v>
+        <v>1693.034518692272</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952861</v>
+        <v>1525.331682066991</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L31" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193525</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763051</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888694</v>
+        <v>3036.502954734813</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682808</v>
+        <v>2781.818466528926</v>
       </c>
       <c r="W31" t="n">
-        <v>1989.118339645847</v>
+        <v>2492.401296491966</v>
       </c>
       <c r="X31" t="n">
-        <v>1761.12878874783</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y31" t="n">
-        <v>1612.736483535255</v>
+        <v>2043.619166450419</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6694,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V32" t="n">
-        <v>2676.636298174514</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W32" t="n">
-        <v>2676.636298174514</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X32" t="n">
-        <v>2303.170539913434</v>
+        <v>2746.162315732313</v>
       </c>
       <c r="Y32" t="n">
-        <v>2303.170539913434</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6795,34 +6797,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>676.468527222536</v>
+        <v>504.4781294962288</v>
       </c>
       <c r="C34" t="n">
-        <v>507.5323442946291</v>
+        <v>335.5419465683219</v>
       </c>
       <c r="D34" t="n">
-        <v>507.5323442946291</v>
+        <v>335.5419465683219</v>
       </c>
       <c r="E34" t="n">
-        <v>359.619250712236</v>
+        <v>335.5419465683219</v>
       </c>
       <c r="F34" t="n">
-        <v>212.7293032143256</v>
+        <v>335.5419465683219</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>167.8391099430409</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1923.125551943388</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S34" t="n">
-        <v>1731.439667770214</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1509.67305233974</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1220.570185465383</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>965.8856972594965</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W34" t="n">
-        <v>676.468527222536</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X34" t="n">
-        <v>676.468527222536</v>
+        <v>906.9191734699987</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.468527222536</v>
+        <v>686.1265943264685</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1753.263343671913</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1384.300826731502</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>1384.300826731502</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
         <v>1232.150970528558</v>
@@ -6932,13 +6934,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6950,37 +6952,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997115</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.863183736035</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y35" t="n">
-        <v>2139.863183736035</v>
+        <v>2382.341170533243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7032,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1881.201889474758</v>
+        <v>469.8823635670444</v>
       </c>
       <c r="C37" t="n">
-        <v>1712.265706546852</v>
+        <v>469.8823635670444</v>
       </c>
       <c r="D37" t="n">
-        <v>1562.149067134516</v>
+        <v>469.8823635670444</v>
       </c>
       <c r="E37" t="n">
-        <v>1562.149067134516</v>
+        <v>469.8823635670444</v>
       </c>
       <c r="F37" t="n">
-        <v>1562.149067134516</v>
+        <v>322.992416069134</v>
       </c>
       <c r="G37" t="n">
-        <v>1562.149067134516</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>3235.775364366698</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>3055.734142589393</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>2801.049654383506</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>2511.632484346545</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X37" t="n">
-        <v>2283.642933448528</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y37" t="n">
-        <v>2062.850354304998</v>
+        <v>651.5308283972842</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7263,16 +7265,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1927.294548088492</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>1637.877378051532</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796238</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392121</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D41" t="n">
-        <v>552.8079389392121</v>
+        <v>889.426272875103</v>
       </c>
       <c r="E41" t="n">
-        <v>167.0196863409679</v>
+        <v>503.6380202768588</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912107</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081057</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794322</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450751</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180637</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919557</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943746</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7484,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158128</v>
@@ -7500,16 +7502,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.164013669402</v>
+        <v>496.5773008749131</v>
       </c>
       <c r="C43" t="n">
-        <v>696.164013669402</v>
+        <v>496.5773008749131</v>
       </c>
       <c r="D43" t="n">
-        <v>546.0473742570663</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415546</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.594608541189</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.594608541189</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.594608541189</v>
+        <v>1127.0078957467</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.605057643172</v>
+        <v>899.018344848683</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.8124784996418</v>
+        <v>678.2257657051529</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.56934869447</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.56934869447</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>1133.30365008772</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>747.5153974894756</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>336.5294926998681</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
@@ -7661,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609169</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265598</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995484</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734404</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758592</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7737,16 +7739,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.3964936596652</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C46" t="n">
-        <v>776.4603107317583</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D46" t="n">
-        <v>626.3436713194226</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E46" t="n">
-        <v>478.4305777370295</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F46" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7834,22 +7836,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V46" t="n">
-        <v>1450.843444452131</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.843444452131</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X46" t="n">
-        <v>1347.837537633435</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y46" t="n">
-        <v>1127.044958489905</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923534</v>
+        <v>97.32166909127261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8152,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>19.96601390625258</v>
+        <v>25.82445471157877</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>149.2371260211907</v>
       </c>
       <c r="P6" t="n">
-        <v>91.66774980749125</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688949</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>114.3555089013265</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>240.4465442417442</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219756</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295025</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>1.429022391928441</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>18.86898237295591</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145486</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>29.21321133720178</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>89.34896340627233</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22705,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59225319294038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>128.1105631592168</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>28.22136151350639</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539824</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>138.0562680054314</v>
+        <v>140.1815018398511</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.096520527081</v>
+        <v>13.55279685568155</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22860,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>32.02898123037339</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22923,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>145.6237067136258</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>47.40978620730789</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22942,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05884594202615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22951,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>63.89827607290258</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700518</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>114.4835700943602</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.6723951661382</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.9770055215042</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2428346683193</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>152.6908186514238</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11538260151929</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.06729358864189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>75.51894560890483</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>277.256643680326</v>
+        <v>126.4919521192241</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>120.3433971668336</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>307.4571019070331</v>
       </c>
       <c r="D14" t="n">
-        <v>325.7488327651031</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.342701841473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>126.491952119223</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>115.901722048939</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>77.16504895841834</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>15.8444509807523</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>336.3649071132048</v>
+        <v>236.682199950548</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>243.7637707342582</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>149.104415274839</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>2.336940124748196</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>236.8107299762993</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.9530049144612</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.972386161189064</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>2.457529283321037</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>61.44380221782495</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>306.4732379112257</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>84.85180572133143</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.67627119164564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>249.3733341565236</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>330.4099222588442</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>44.4412913385719</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.80484648639363</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>345.9318471227952</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>231.3020124313482</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>56.86532653276791</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>107.9710286460804</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>362.4386851003799</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.32522828944215</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>307.3735515320147</v>
+        <v>268.7291653228034</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292601</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.70595108941041</v>
       </c>
       <c r="E43" t="n">
-        <v>78.82730098312224</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>143.6045231484457</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25919,10 +25921,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>21.19860275476543</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>43.60786094377065</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>123.7338076385285</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>488150.3471696578</v>
+        <v>506519.0881120662</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630919.2087184655</v>
+        <v>613135.6732295435</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>757210.5107736092</v>
+        <v>757210.5107736094</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.972865444</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829981.9728654438</v>
+        <v>829981.9728654439</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>829981.9728654438</v>
+        <v>829981.972865444</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.9728654438</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>829981.972865444</v>
+        <v>829981.9728654438</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.9728654437</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>829981.9728654436</v>
+        <v>829981.9728654439</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.9728654438</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.9728654438</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>829981.9728654437</v>
+        <v>829981.9728654439</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829981.9728654438</v>
+        <v>829981.9728654437</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216413.5278364503</v>
+        <v>224363.2393168237</v>
       </c>
       <c r="C2" t="n">
-        <v>280214.6757500477</v>
+        <v>272208.0211027219</v>
       </c>
       <c r="D2" t="n">
         <v>336568.7935437395</v>
@@ -26326,22 +26328,22 @@
         <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
+        <v>375096.8088680128</v>
+      </c>
+      <c r="J2" t="n">
         <v>375096.8088680127</v>
       </c>
-      <c r="J2" t="n">
-        <v>375096.8088680126</v>
-      </c>
       <c r="K2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="L2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="M2" t="n">
         <v>375096.8088680127</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>232967.0802789295</v>
+        <v>176672.6241739534</v>
       </c>
       <c r="D3" t="n">
-        <v>195646.7520407409</v>
+        <v>223886.3093819043</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171887</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353588</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>54165.63263426735</v>
+        <v>41076.98154640877</v>
       </c>
       <c r="L3" t="n">
-        <v>48167.52651469478</v>
+        <v>54988.29121946748</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16183.32717025136</v>
+        <v>17227.97312960585</v>
       </c>
       <c r="C4" t="n">
-        <v>19915.38496581828</v>
+        <v>19579.89309662813</v>
       </c>
       <c r="D4" t="n">
-        <v>23400.41285106774</v>
+        <v>23400.41285106792</v>
       </c>
       <c r="E4" t="n">
+        <v>12210.17896214072</v>
+      </c>
+      <c r="F4" t="n">
         <v>12210.17896214071</v>
       </c>
-      <c r="F4" t="n">
-        <v>12210.17896214073</v>
-      </c>
       <c r="G4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="H4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="I4" t="n">
+        <v>12210.17896214071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12210.17896214073</v>
+      </c>
+      <c r="K4" t="n">
         <v>12210.17896214072</v>
       </c>
-      <c r="J4" t="n">
-        <v>12210.17896214072</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>12210.17896214071</v>
       </c>
-      <c r="L4" t="n">
-        <v>12210.17896214073</v>
-      </c>
       <c r="M4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="P4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>77891.16531167447</v>
+        <v>75746.87167923139</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26491,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-513161.9460482638</v>
+        <v>-536000.5176082415</v>
       </c>
       <c r="C6" t="n">
-        <v>-50558.9548063745</v>
+        <v>208.6321529089619</v>
       </c>
       <c r="D6" t="n">
-        <v>24583.85621208606</v>
+        <v>-3655.701129077352</v>
       </c>
       <c r="E6" t="n">
-        <v>106507.30952729</v>
+        <v>106507.3095272883</v>
       </c>
       <c r="F6" t="n">
-        <v>288580.2893444791</v>
+        <v>288580.2893444787</v>
       </c>
       <c r="G6" t="n">
-        <v>288580.2893444786</v>
+        <v>288580.2893444787</v>
       </c>
       <c r="H6" t="n">
         <v>288580.2893444787</v>
       </c>
       <c r="I6" t="n">
-        <v>288580.2893444786</v>
+        <v>288580.2893444788</v>
       </c>
       <c r="J6" t="n">
-        <v>225835.9785609427</v>
+        <v>219581.1349253646</v>
       </c>
       <c r="K6" t="n">
-        <v>234414.6567102115</v>
+        <v>247503.3077980699</v>
       </c>
       <c r="L6" t="n">
-        <v>240412.7628297838</v>
+        <v>233591.9981250112</v>
       </c>
       <c r="M6" t="n">
-        <v>241028.0235510637</v>
+        <v>241028.023551064</v>
       </c>
       <c r="N6" t="n">
-        <v>288580.2893444786</v>
+        <v>288580.2893444787</v>
       </c>
       <c r="O6" t="n">
         <v>288580.2893444787</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>774.6459964115182</v>
+        <v>751.4467899908087</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>450.2678057549896</v>
+        <v>423.3179548919698</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26811,25 +26813,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022922</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>181.1698960734533</v>
+        <v>137.3917762213304</v>
       </c>
       <c r="D3" t="n">
-        <v>159.4188957060234</v>
+        <v>182.6181021267305</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757567</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>210.4598576134846</v>
+        <v>159.6040748904636</v>
       </c>
       <c r="D4" t="n">
-        <v>190.3170263450492</v>
+        <v>217.2668772080691</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>210.4598576134848</v>
+        <v>159.6040748904633</v>
       </c>
       <c r="L4" t="n">
-        <v>190.3170263450489</v>
+        <v>217.2668772080693</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>210.4598576134846</v>
+        <v>159.6040748904636</v>
       </c>
       <c r="L4" t="n">
-        <v>190.3170263450492</v>
+        <v>217.2668772080691</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.114154759443287</v>
+        <v>3.0208916180535</v>
       </c>
       <c r="H5" t="n">
-        <v>31.89283743014857</v>
+        <v>30.93770628339042</v>
       </c>
       <c r="I5" t="n">
-        <v>120.0584513634374</v>
+        <v>116.4629241050077</v>
       </c>
       <c r="J5" t="n">
-        <v>264.3099925142999</v>
+        <v>256.3943999677685</v>
       </c>
       <c r="K5" t="n">
-        <v>396.1321634815343</v>
+        <v>384.2687421599732</v>
       </c>
       <c r="L5" t="n">
-        <v>491.436977200847</v>
+        <v>476.7193540159781</v>
       </c>
       <c r="M5" t="n">
-        <v>546.8183269040965</v>
+        <v>530.442135328537</v>
       </c>
       <c r="N5" t="n">
-        <v>555.6664191143648</v>
+        <v>539.0252436383316</v>
       </c>
       <c r="O5" t="n">
-        <v>524.7000427251505</v>
+        <v>508.9862526113121</v>
       </c>
       <c r="P5" t="n">
-        <v>447.8193471013943</v>
+        <v>434.4079907906162</v>
       </c>
       <c r="Q5" t="n">
-        <v>336.2936797788315</v>
+        <v>326.2223097190752</v>
       </c>
       <c r="R5" t="n">
-        <v>195.6195239078795</v>
+        <v>189.7610831025534</v>
       </c>
       <c r="S5" t="n">
-        <v>70.96380158081398</v>
+        <v>68.8385677463942</v>
       </c>
       <c r="T5" t="n">
-        <v>13.632212459463</v>
+        <v>13.2239530580292</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2491323807554629</v>
+        <v>0.24167132944428</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.666219690394587</v>
+        <v>1.616319510546268</v>
       </c>
       <c r="H6" t="n">
-        <v>16.09217437828456</v>
+        <v>15.61024369396001</v>
       </c>
       <c r="I6" t="n">
-        <v>57.36765162104169</v>
+        <v>55.6495971832816</v>
       </c>
       <c r="J6" t="n">
-        <v>157.4212208367973</v>
+        <v>152.7067481433209</v>
       </c>
       <c r="K6" t="n">
-        <v>269.0579400932346</v>
+        <v>261.0001553499208</v>
       </c>
       <c r="L6" t="n">
-        <v>361.7816042674737</v>
+        <v>350.9469182876886</v>
       </c>
       <c r="M6" t="n">
-        <v>422.1820680442774</v>
+        <v>409.5385005449907</v>
       </c>
       <c r="N6" t="n">
-        <v>433.3559711434587</v>
+        <v>420.3777660345752</v>
       </c>
       <c r="O6" t="n">
-        <v>396.4360506352418</v>
+        <v>384.5635284587868</v>
       </c>
       <c r="P6" t="n">
-        <v>318.1748810543838</v>
+        <v>308.6461353077343</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.6914818826493</v>
+        <v>206.3217676970991</v>
       </c>
       <c r="R6" t="n">
-        <v>103.4517804264288</v>
+        <v>100.3535920670745</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9492999509696</v>
+        <v>30.02242599633088</v>
       </c>
       <c r="T6" t="n">
-        <v>6.716034629265897</v>
+        <v>6.514901886807103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1096197164733281</v>
+        <v>0.1063368099043598</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.396902616479787</v>
+        <v>1.355067981950639</v>
       </c>
       <c r="H7" t="n">
-        <v>12.41973417197484</v>
+        <v>12.04778623952478</v>
       </c>
       <c r="I7" t="n">
-        <v>42.00867141195578</v>
+        <v>40.75058985720649</v>
       </c>
       <c r="J7" t="n">
-        <v>98.76101498512092</v>
+        <v>95.80330632391014</v>
       </c>
       <c r="K7" t="n">
-        <v>162.2946858055606</v>
+        <v>157.4342619029923</v>
       </c>
       <c r="L7" t="n">
-        <v>207.6813217264585</v>
+        <v>201.4616525165522</v>
       </c>
       <c r="M7" t="n">
-        <v>218.9708346905542</v>
+        <v>212.4130655706805</v>
       </c>
       <c r="N7" t="n">
-        <v>213.7641976654934</v>
+        <v>207.3623576379556</v>
       </c>
       <c r="O7" t="n">
-        <v>197.4458352820703</v>
+        <v>191.5326998488049</v>
       </c>
       <c r="P7" t="n">
-        <v>168.9490219058825</v>
+        <v>163.8893130170117</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.9715454581392</v>
+        <v>113.4684652886121</v>
       </c>
       <c r="R7" t="n">
-        <v>62.80982128280931</v>
+        <v>60.92878398843506</v>
       </c>
       <c r="S7" t="n">
-        <v>24.3442028708341</v>
+        <v>23.61513928544885</v>
       </c>
       <c r="T7" t="n">
-        <v>5.96858390677727</v>
+        <v>5.789835922879999</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07619468817162482</v>
+        <v>0.07391279901548946</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33512,7 +33514,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33752,7 +33754,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34129,7 +34131,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054954007</v>
       </c>
       <c r="K41" t="n">
         <v>557.2811376003808</v>
@@ -34220,7 +34222,7 @@
         <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970248</v>
@@ -34387,7 +34389,7 @@
         <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970248</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219192</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459997036</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>83.26408798761366</v>
+        <v>75.34849544108221</v>
       </c>
       <c r="K5" t="n">
-        <v>176.0423124365538</v>
+        <v>164.1788911149927</v>
       </c>
       <c r="L5" t="n">
-        <v>255.6705622308597</v>
+        <v>240.9529390459909</v>
       </c>
       <c r="M5" t="n">
-        <v>316.4720936768238</v>
+        <v>300.0959021012643</v>
       </c>
       <c r="N5" t="n">
-        <v>326.2533555177739</v>
+        <v>309.6121800417407</v>
       </c>
       <c r="O5" t="n">
-        <v>294.6018313034638</v>
+        <v>278.8880411896254</v>
       </c>
       <c r="P5" t="n">
-        <v>216.5863513461248</v>
+        <v>203.1749950353467</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.987989904382</v>
+        <v>103.9166198446257</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.58359417013065</v>
+        <v>151.960156817063</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2165011188756</v>
+        <v>123.1587163755618</v>
       </c>
       <c r="L6" t="n">
-        <v>223.2272244875995</v>
+        <v>212.3925385078144</v>
       </c>
       <c r="M6" t="n">
-        <v>280.0480341222591</v>
+        <v>267.4044666229724</v>
       </c>
       <c r="N6" t="n">
-        <v>302.0142590601254</v>
+        <v>289.0360539512419</v>
       </c>
       <c r="O6" t="n">
-        <v>253.8398061907973</v>
+        <v>391.204410035533</v>
       </c>
       <c r="P6" t="n">
-        <v>275.8682234475448</v>
+        <v>174.671727893404</v>
       </c>
       <c r="Q6" t="n">
-        <v>282.7869955324769</v>
+        <v>66.33999361107755</v>
       </c>
       <c r="R6" t="n">
-        <v>3.293946273785707</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.401834868448148</v>
+        <v>2.44412620723736</v>
       </c>
       <c r="K7" t="n">
-        <v>140.0251939796778</v>
+        <v>135.1647700771095</v>
       </c>
       <c r="L7" t="n">
-        <v>235.2713469867747</v>
+        <v>229.0516777768684</v>
       </c>
       <c r="M7" t="n">
-        <v>258.5547116523948</v>
+        <v>251.9969425325211</v>
       </c>
       <c r="N7" t="n">
-        <v>257.8963700447219</v>
+        <v>251.4945300171842</v>
       </c>
       <c r="O7" t="n">
-        <v>222.03096319611</v>
+        <v>216.1178277628445</v>
       </c>
       <c r="P7" t="n">
-        <v>166.227581170776</v>
+        <v>161.1678722819052</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.80950220644486</v>
+        <v>27.30642203691772</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560642</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>449.7801908974507</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>490.1260733652765</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37160,7 +37162,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687144</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554003</v>
@@ -37868,7 +37870,7 @@
         <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525803</v>
@@ -38035,7 +38037,7 @@
         <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222467</v>
@@ -38105,7 +38107,7 @@
         <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525803</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>951704.4914477019</v>
+        <v>912099.9843678958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367734</v>
+        <v>4171427.157673261</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8997933.331971603</v>
+        <v>10101941.76131993</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>221.0427070190019</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>26.46530275892241</v>
       </c>
       <c r="U3" t="n">
-        <v>136.5055240972823</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>76.60860108437696</v>
+        <v>77.75392192072604</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323767</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539852</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>237.5511847227107</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>26.95168718538556</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>59.88837794077003</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253645</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813348</v>
+        <v>33.74703566813361</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3631989961696</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>81.52277195002867</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887344</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>19.29407820579498</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>212.5820731195838</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>235.9933364460349</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.4147107719976</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>150.1907097801323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>335.3147192381621</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592449</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>88.18935773635812</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>57.81578986397442</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>295.3789990280795</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>95.51745656142748</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>220.7797508188691</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>168.1158122680975</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.26879610203959</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>270.6785473558387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>128.5906918204595</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>185.8069521212272</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>257.7716304668725</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>269.2562275335322</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>24.01006515217569</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>15.32691334752876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>126.7498226612772</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>107.0120291964077</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.9578662344158</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>249.680114040507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>238.3777846585161</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.76470074482786</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="H31" t="n">
-        <v>59.90320919298934</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>79.41818244097558</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>55.82801639720944</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>100.3137235757489</v>
+        <v>53.78998909690283</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.80199454068539</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>119.0033277132842</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>109.1604817262603</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>71.16124876855235</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>22.79319361026462</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>23.79925355567368</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249709</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>195.2077368190281</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>138.1468804189081</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>133.909521928802</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>68.59371373186775</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>307.8248749626786</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>229.7965692041365</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.68984412497</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>105.0076120744417</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.4747669672985</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>21.0971104001205</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0971104001205</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0971104001205</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>820.2300801016545</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016545</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016545</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016545</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>399.1530532740824</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>224.7000239929554</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>224.7000239929554</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699345</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413021</v>
+        <v>861.1507087672378</v>
       </c>
       <c r="U3" t="n">
-        <v>571.5257754662695</v>
+        <v>861.1507087672378</v>
       </c>
       <c r="V3" t="n">
-        <v>571.5257754662695</v>
+        <v>861.1507087672378</v>
       </c>
       <c r="W3" t="n">
-        <v>571.5257754662695</v>
+        <v>606.9133520390362</v>
       </c>
       <c r="X3" t="n">
-        <v>571.5257754662695</v>
+        <v>606.9133520390362</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.7654767013155</v>
+        <v>399.1530532740824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>977.4730946682703</v>
+        <v>976.3162049345841</v>
       </c>
       <c r="T4" t="n">
-        <v>977.4730946682703</v>
+        <v>750.8471686925984</v>
       </c>
       <c r="U4" t="n">
-        <v>711.0954381010923</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="V4" t="n">
-        <v>456.4109498952054</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="W4" t="n">
-        <v>190.0332933280274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>190.0332933280274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0332933280274</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.5190685452735</v>
+        <v>1279.448053053865</v>
       </c>
       <c r="C5" t="n">
-        <v>345.5190685452735</v>
+        <v>910.485536113453</v>
       </c>
       <c r="D5" t="n">
-        <v>345.5190685452735</v>
+        <v>552.2198375067024</v>
       </c>
       <c r="E5" t="n">
-        <v>345.5190685452735</v>
+        <v>552.2198375067024</v>
       </c>
       <c r="F5" t="n">
-        <v>345.5190685452735</v>
+        <v>545.274336757499</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5190685452735</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135758</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135758</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="J5" t="n">
-        <v>108.460446878029</v>
+        <v>108.4604468780282</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818717</v>
+        <v>270.99754908187</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374023</v>
+        <v>509.5409587374002</v>
       </c>
       <c r="M5" t="n">
-        <v>806.635901817654</v>
+        <v>806.6359018176505</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058978</v>
+        <v>1113.151960058972</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836707</v>
+        <v>1389.2511208367</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.3943659217</v>
+        <v>1590.394365921692</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567879</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567879</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567879</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567879</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="U5" t="n">
-        <v>1453.321127928778</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="V5" t="n">
-        <v>1122.258240585207</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="W5" t="n">
-        <v>1122.258240585207</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="X5" t="n">
-        <v>1122.258240585207</v>
+        <v>1666.047893117986</v>
       </c>
       <c r="Y5" t="n">
-        <v>732.1189086093952</v>
+        <v>1666.047893117986</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.1057726051455</v>
+        <v>855.2073268491145</v>
       </c>
       <c r="C6" t="n">
-        <v>302.6527433240185</v>
+        <v>680.7542975679875</v>
       </c>
       <c r="D6" t="n">
-        <v>302.6527433240185</v>
+        <v>531.8198879067362</v>
       </c>
       <c r="E6" t="n">
-        <v>302.6527433240185</v>
+        <v>372.5824329012807</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>226.0478749281657</v>
       </c>
       <c r="G6" t="n">
         <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765404</v>
+        <v>67.95335120765401</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135758</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="J6" t="n">
-        <v>184.30599164025</v>
+        <v>184.3059916402494</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2331208520562</v>
+        <v>306.233120852055</v>
       </c>
       <c r="L6" t="n">
-        <v>516.5017339747924</v>
+        <v>516.5017339747905</v>
       </c>
       <c r="M6" t="n">
-        <v>781.2321559315351</v>
+        <v>781.2321559315321</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.377849343265</v>
+        <v>1067.377849343261</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.670215278442</v>
+        <v>1306.925460517459</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.595225892912</v>
+        <v>1479.850471131928</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567879</v>
+        <v>1693.078019232584</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567879</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843125</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178464</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.458064833948</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="V6" t="n">
-        <v>891.3059566022052</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="W6" t="n">
-        <v>637.0685998740037</v>
+        <v>1439.034462839669</v>
       </c>
       <c r="X6" t="n">
-        <v>477.1057726051455</v>
+        <v>1231.182962634136</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.1057726051455</v>
+        <v>1023.422663869183</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>751.4966890074649</v>
+        <v>352.9182587316001</v>
       </c>
       <c r="C7" t="n">
-        <v>582.560506079558</v>
+        <v>183.9820758036931</v>
       </c>
       <c r="D7" t="n">
-        <v>432.4438666672222</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="E7" t="n">
-        <v>284.5307730848291</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918708</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135758</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135758</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135758</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652257</v>
+        <v>36.28512133652218</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128609</v>
+        <v>170.0982437128602</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119607</v>
+        <v>396.8594047119594</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191566</v>
+        <v>646.3363778191548</v>
       </c>
       <c r="N7" t="n">
-        <v>895.315962536169</v>
+        <v>895.3159625361666</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021385</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580471</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.86216339702</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933652</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230219</v>
+        <v>1276.373195512375</v>
       </c>
       <c r="T7" t="n">
-        <v>751.4966890074649</v>
+        <v>1051.973444496818</v>
       </c>
       <c r="U7" t="n">
-        <v>751.4966890074649</v>
+        <v>1051.973444496818</v>
       </c>
       <c r="V7" t="n">
-        <v>751.4966890074649</v>
+        <v>1051.973444496818</v>
       </c>
       <c r="W7" t="n">
-        <v>751.4966890074649</v>
+        <v>762.5562744598571</v>
       </c>
       <c r="X7" t="n">
-        <v>751.4966890074649</v>
+        <v>534.5667235618398</v>
       </c>
       <c r="Y7" t="n">
-        <v>751.4966890074649</v>
+        <v>534.5667235618398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.9761533554615</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C8" t="n">
-        <v>51.24678656800311</v>
+        <v>1815.096543250394</v>
       </c>
       <c r="D8" t="n">
-        <v>51.24678656800311</v>
+        <v>1456.830844643644</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800311</v>
+        <v>1071.042592045399</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>660.0566872557918</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y8" t="n">
-        <v>652.5759934195833</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,25 +4886,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.8801184070676</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>623.9439354791607</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>1195.321162380837</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.5285832373073</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5071,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2045.657199403896</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>453.622008756567</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>453.622008756567</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>303.5053693442312</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>155.5922757618381</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>674.4145879000971</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>453.622008756567</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2034.604709474942</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1524.00114307307</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1165.73544446632</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>779.9471918680754</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5296,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5311,19 +5311,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450753</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.744041450753</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y14" t="n">
-        <v>2034.604709474942</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5378,31 +5378,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>628.7269654071706</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>628.7269654071706</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>478.6103259948349</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>330.6972324124417</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>810.3754302374103</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308158</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367746</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760996</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.384423162752</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>651.398518373144</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>236.3260682181405</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.140063348092</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.00073137228</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>479.6639240396553</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C19" t="n">
-        <v>310.7277411117484</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D19" t="n">
-        <v>310.7277411117484</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E19" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>1110.094518911442</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>882.1049680134252</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y19" t="n">
-        <v>661.312388869895</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796256</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C20" t="n">
-        <v>791.8808681821918</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D20" t="n">
-        <v>791.8808681821918</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158134</v>
@@ -5843,7 +5843,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.4482993600903</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5910,16 +5910,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1920.850034779555</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1699.083419349081</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1409.980552474725</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1155.296064268838</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>865.8788942318776</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>637.8893433338602</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>417.0967641903301</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1127.748203495403</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C23" t="n">
-        <v>1127.748203495403</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>1127.748203495403</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>741.9599508971592</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6007,7 +6007,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6034,7 +6034,7 @@
         <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>1514.348043559525</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6147,16 +6147,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1903.041957025689</v>
       </c>
       <c r="T25" t="n">
-        <v>1615.697475415547</v>
+        <v>1681.275341595215</v>
       </c>
       <c r="U25" t="n">
-        <v>1615.697475415547</v>
+        <v>1392.172474720858</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.215744761477</v>
+        <v>1137.487986514971</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.798574724517</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>1082.809023826499</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796256</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C26" t="n">
-        <v>552.807938939214</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5422403324635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E26" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6271,7 +6271,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="27">
@@ -6326,7 +6326,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.4780323548191</v>
+        <v>788.4062285743616</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5418494269122</v>
+        <v>619.4700456464548</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>469.353406234119</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>321.4403126517259</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>174.5503651538155</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658018</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.325797263567</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.908627226606</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X28" t="n">
-        <v>935.919076328589</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.1264971850588</v>
+        <v>970.0546934046014</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1617.939223126803</v>
+        <v>1384.829779622644</v>
       </c>
       <c r="C29" t="n">
-        <v>1617.939223126803</v>
+        <v>1015.867262682232</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1015.867262682232</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218339</v>
@@ -6469,46 +6469,46 @@
         <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919558</v>
+        <v>2161.568951662577</v>
       </c>
       <c r="Y29" t="n">
-        <v>1617.939223126803</v>
+        <v>1771.429619686765</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1861.970701620179</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C31" t="n">
-        <v>1693.034518692272</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D31" t="n">
-        <v>1693.034518692272</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E31" t="n">
-        <v>1693.034518692272</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="F31" t="n">
-        <v>1693.034518692272</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="G31" t="n">
-        <v>1525.331682066991</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>3036.502954734813</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>2781.818466528926</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W31" t="n">
-        <v>2492.401296491966</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X31" t="n">
-        <v>2264.411745593949</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y31" t="n">
-        <v>2043.619166450419</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>2085.807325826217</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1716.844808885805</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1358.579110279054</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>972.7908576808102</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>561.8049528912027</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>146.7325027361991</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>3119.628073993393</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X32" t="n">
-        <v>2746.162315732313</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="Y32" t="n">
-        <v>2689.770379977556</v>
+        <v>2472.407165890339</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6791,7 +6791,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>504.4781294962288</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="C34" t="n">
-        <v>335.5419465683219</v>
+        <v>733.4679558702076</v>
       </c>
       <c r="D34" t="n">
-        <v>335.5419465683219</v>
+        <v>583.3513164578718</v>
       </c>
       <c r="E34" t="n">
-        <v>335.5419465683219</v>
+        <v>435.4382228754787</v>
       </c>
       <c r="F34" t="n">
-        <v>335.5419465683219</v>
+        <v>288.5482753775683</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8391099430409</v>
+        <v>120.8454387522873</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V34" t="n">
-        <v>1134.908724368016</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W34" t="n">
-        <v>1134.908724368016</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X34" t="n">
-        <v>906.9191734699987</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.1265943264685</v>
+        <v>902.4041387981144</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794323</v>
+        <v>3095.109771607697</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794323</v>
+        <v>3095.109771607697</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.341170533243</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.341170533243</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.8823635670444</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C37" t="n">
-        <v>469.8823635670444</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D37" t="n">
-        <v>469.8823635670444</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E37" t="n">
-        <v>469.8823635670444</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F37" t="n">
-        <v>322.992416069134</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408143</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>872.3234075408143</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="Y37" t="n">
-        <v>651.5308283972842</v>
+        <v>608.7574741064773</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>957.5907980264819</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>546.6048932368744</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>131.5324430818709</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2755.806928794323</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2755.806928794323</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7265,13 +7265,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7365,19 +7365,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610488</v>
+        <v>1316.662516344412</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046014</v>
+        <v>1061.978028138525</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676408</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696235</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260934</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.654488422265</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C41" t="n">
-        <v>1247.691971481853</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D41" t="n">
-        <v>889.426272875103</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E41" t="n">
-        <v>503.6380202768588</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723278</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X41" t="n">
-        <v>2393.393660462199</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.254328486387</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992584</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>496.5773008749131</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="C43" t="n">
-        <v>496.5773008749131</v>
+        <v>283.7117895417157</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>283.7117895417157</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>135.7986959593226</v>
       </c>
       <c r="F43" t="n">
         <v>66.51211643218342</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783661</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V43" t="n">
-        <v>1416.425065783661</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W43" t="n">
-        <v>1127.0078957467</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X43" t="n">
-        <v>899.018344848683</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y43" t="n">
-        <v>678.2257657051529</v>
+        <v>452.6479724696226</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>1132.09928287297</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3093.488074938325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>3093.488074938325</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W44" t="n">
-        <v>2740.71941966821</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7622949738568</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C46" t="n">
-        <v>583.8261120459499</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882605</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845644</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.203338947627</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.4107598040965</v>
+        <v>231.8553933260925</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157877</v>
+        <v>25.82445471157925</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>149.2371260211907</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>149.0413681067574</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688949</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.86898237295591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22682,16 +22682,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>89.34896340627233</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.1105631592168</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539824</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398511</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>13.55279685568155</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.40978620730789</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>63.89827607290258</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700518</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>152.6908186514238</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23187,10 +23187,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>75.51894560890483</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>19.36832238252089</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192241</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>57.23169028657313</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>307.4571019070331</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>111.4970467136319</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.90359146150377</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>161.9540908446115</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>126.491952119223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445296</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>15.8444509807523</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>236.682199950548</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>196.1234179510346</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057377</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>149.104415274839</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>116.9817111225214</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>165.7589601792662</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>236.8107299762993</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1805474109846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>279.2259094596459</v>
       </c>
     </row>
     <row r="27">
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>59.06794202461244</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2.457529283321037</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>143.5525854137457</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.4732379112257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.335964134057321</v>
       </c>
       <c r="H31" t="n">
-        <v>84.85180572133143</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>215.1895819463449</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.4099222588442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>44.4412913385719</v>
+        <v>90.96502581741795</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345.9318471227952</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>208.7489307568507</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>56.86532653276791</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>154.5484066204848</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.8145707770558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>362.4386851003799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696639</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>91.00410138658475</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>268.7291653228034</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>126.4919521192239</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292601</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>14.70595108941041</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>76.82733429106349</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>99.05117077903282</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>21.19860275476543</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.1421360569673</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>43.60786094377065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>506519.0881120662</v>
+        <v>1002249.417076137</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>613135.6732295435</v>
+        <v>1004477.387388018</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>757210.5107736094</v>
+        <v>1008128.721424409</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829981.972865444</v>
+        <v>829981.9728654439</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.972865444</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>829981.972865444</v>
+        <v>829981.9728654438</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>829981.9728654438</v>
+        <v>829981.972865444</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829981.9728654437</v>
+        <v>829981.9728654438</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>829981.9728654439</v>
+        <v>829981.9728654437</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>829981.9728654438</v>
+        <v>829981.9728654439</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224363.2393168237</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>272208.0211027219</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>336568.7935437395</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680125</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="H2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="J2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="K2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="L2" t="n">
         <v>375096.8088680127</v>
@@ -26349,13 +26349,13 @@
         <v>375096.8088680127</v>
       </c>
       <c r="N2" t="n">
+        <v>375096.8088680125</v>
+      </c>
+      <c r="O2" t="n">
+        <v>375096.8088680126</v>
+      </c>
+      <c r="P2" t="n">
         <v>375096.8088680127</v>
-      </c>
-      <c r="O2" t="n">
-        <v>375096.8088680127</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375096.8088680126</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739534</v>
+        <v>176672.6241739512</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819043</v>
+        <v>223886.3093819065</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171904</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640877</v>
+        <v>41076.98154640819</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946748</v>
+        <v>54988.29121946797</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341497</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17227.97312960585</v>
+        <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>19579.89309662813</v>
+        <v>205717.3645450218</v>
       </c>
       <c r="D4" t="n">
-        <v>23400.41285106792</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214072</v>
       </c>
       <c r="F4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214073</v>
       </c>
       <c r="G4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214073</v>
       </c>
       <c r="H4" t="n">
         <v>12210.17896214071</v>
@@ -26441,10 +26441,10 @@
         <v>12210.17896214071</v>
       </c>
       <c r="J4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="K4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="L4" t="n">
         <v>12210.17896214071</v>
@@ -26456,7 +26456,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214078</v>
       </c>
       <c r="P4" t="n">
         <v>12210.17896214071</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923139</v>
+        <v>75746.87167923123</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26499,13 +26499,13 @@
         <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536000.5176082415</v>
+        <v>-544579.5752774386</v>
       </c>
       <c r="C6" t="n">
-        <v>208.6321529089619</v>
+        <v>-6563.88697284818</v>
       </c>
       <c r="D6" t="n">
-        <v>-3655.701129077352</v>
+        <v>-7998.065664094727</v>
       </c>
       <c r="E6" t="n">
-        <v>106507.3095272883</v>
+        <v>103031.120229227</v>
       </c>
       <c r="F6" t="n">
-        <v>288580.2893444787</v>
+        <v>285104.1000464174</v>
       </c>
       <c r="G6" t="n">
-        <v>288580.2893444787</v>
+        <v>285104.1000464175</v>
       </c>
       <c r="H6" t="n">
-        <v>288580.2893444787</v>
+        <v>285104.1000464177</v>
       </c>
       <c r="I6" t="n">
-        <v>288580.2893444788</v>
+        <v>285104.1000464176</v>
       </c>
       <c r="J6" t="n">
-        <v>219581.1349253646</v>
+        <v>216104.9456273036</v>
       </c>
       <c r="K6" t="n">
-        <v>247503.3077980699</v>
+        <v>244027.1185000094</v>
       </c>
       <c r="L6" t="n">
-        <v>233591.9981250112</v>
+        <v>230115.8088269497</v>
       </c>
       <c r="M6" t="n">
-        <v>241028.023551064</v>
+        <v>237551.8342530027</v>
       </c>
       <c r="N6" t="n">
-        <v>288580.2893444787</v>
+        <v>285104.1000464174</v>
       </c>
       <c r="O6" t="n">
-        <v>288580.2893444787</v>
+        <v>285104.1000464174</v>
       </c>
       <c r="P6" t="n">
-        <v>288580.2893444786</v>
+        <v>285104.1000464177</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908087</v>
+        <v>751.4467899908069</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919698</v>
+        <v>423.3179548919677</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26804,7 +26804,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26816,16 +26816,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213304</v>
+        <v>137.3917762213287</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267305</v>
+        <v>182.6181021267323</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757589</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904636</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080691</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022538</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904633</v>
+        <v>159.6040748904611</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080693</v>
+        <v>217.2668772080713</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904636</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080691</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022538</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>144.2301847520057</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>168.3756848259544</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>126.9652423228677</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>342.7794134930835</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>75.83881971189433</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>181.1073805457285</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>175.5543663269191</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>54.72293255183041</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0208916180535</v>
+        <v>3.020891618053493</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339042</v>
+        <v>30.93770628339034</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050077</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677685</v>
+        <v>256.3943999677679</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599732</v>
+        <v>384.2687421599723</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159781</v>
+        <v>476.719354015977</v>
       </c>
       <c r="M5" t="n">
-        <v>530.442135328537</v>
+        <v>530.4421353285358</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383316</v>
+        <v>539.0252436383303</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113121</v>
+        <v>508.9862526113108</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906162</v>
+        <v>434.4079907906151</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190752</v>
+        <v>326.2223097190744</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025534</v>
+        <v>189.7610831025529</v>
       </c>
       <c r="S5" t="n">
-        <v>68.8385677463942</v>
+        <v>68.83856774639403</v>
       </c>
       <c r="T5" t="n">
-        <v>13.2239530580292</v>
+        <v>13.22395305802917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.24167132944428</v>
+        <v>0.2416713294442794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546268</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369396001</v>
+        <v>15.61024369395997</v>
       </c>
       <c r="I6" t="n">
-        <v>55.6495971832816</v>
+        <v>55.64959718328146</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433209</v>
+        <v>152.7067481433205</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499208</v>
+        <v>261.0001553499202</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876886</v>
+        <v>350.9469182876878</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449907</v>
+        <v>409.5385005449897</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345752</v>
+        <v>420.3777660345742</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587868</v>
+        <v>384.5635284587859</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077343</v>
+        <v>308.6461353077335</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970991</v>
+        <v>206.3217676970986</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670745</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633088</v>
+        <v>30.0224259963308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807103</v>
+        <v>6.514901886807087</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043598</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950639</v>
+        <v>1.355067981950635</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952478</v>
+        <v>12.04778623952475</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720649</v>
+        <v>40.75058985720639</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632391014</v>
+        <v>95.80330632390991</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029923</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165522</v>
+        <v>201.4616525165518</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706805</v>
+        <v>212.41306557068</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379556</v>
+        <v>207.3623576379551</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488049</v>
+        <v>191.5326998488044</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170117</v>
+        <v>163.8893130170113</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886121</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843506</v>
+        <v>60.92878398843492</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544885</v>
+        <v>23.61513928544879</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879999</v>
+        <v>5.789835922879986</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548946</v>
+        <v>0.07391279901548928</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33508,13 +33508,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34131,7 +34131,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054954007</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
         <v>557.2811376003808</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138794</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970248</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970248</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108221</v>
+        <v>75.34849544108158</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149927</v>
+        <v>164.1788911149918</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459909</v>
+        <v>240.9529390459898</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012643</v>
+        <v>300.0959021012631</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417407</v>
+        <v>309.6121800417394</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896254</v>
+        <v>278.8880411896241</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353467</v>
+        <v>203.1749950353456</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446257</v>
+        <v>103.9166198446249</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.960156817063</v>
+        <v>151.9601568170627</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755618</v>
+        <v>123.1587163755612</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078144</v>
+        <v>212.3925385078136</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229724</v>
+        <v>267.4044666229714</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512419</v>
+        <v>289.0360539512409</v>
       </c>
       <c r="O6" t="n">
-        <v>391.204410035533</v>
+        <v>241.9672840143414</v>
       </c>
       <c r="P6" t="n">
-        <v>174.671727893404</v>
+        <v>174.6717278934033</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107755</v>
+        <v>215.3813617178345</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144310841</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.44412620723736</v>
+        <v>2.444126207237133</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771095</v>
+        <v>135.1647700771091</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768684</v>
+        <v>229.0516777768679</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325211</v>
+        <v>251.9969425325206</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171842</v>
+        <v>251.4945300171837</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628445</v>
+        <v>216.1178277628441</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819052</v>
+        <v>161.1678722819048</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691772</v>
+        <v>27.30642203691745</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37156,13 +37156,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340052</v>
@@ -37870,7 +37870,7 @@
         <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525803</v>
@@ -38107,7 +38107,7 @@
         <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525803</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
